--- a/BalanceSheet/CAH_bal.xlsx
+++ b/BalanceSheet/CAH_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1011000000.0</v>
+        <v>14443000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-245000000.0</v>
+        <v>13439000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-401000000.0</v>
+        <v>13198000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>983000000.0</v>
+        <v>12808000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1347000000.0</v>
+        <v>13799000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>12458000000.0</v>
@@ -1748,19 +1748,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1548000000.0</v>
+        <v>23235000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>313000000.0</v>
+        <v>21688000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-610000000.0</v>
+        <v>21374000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>525000000.0</v>
+        <v>21984000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1735000000.0</v>
+        <v>21459000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>19724000000.0</v>
@@ -2440,7 +2440,7 @@
         <v>8417000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-961000000.0</v>
+        <v>7070000000.0</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>6992000000.0</v>
